--- a/Middle Assignment_TestCase4/TRAN NGUYEN MINH_Test Case 4_Middle Assignment_Updated.xlsx
+++ b/Middle Assignment_TestCase4/TRAN NGUYEN MINH_Test Case 4_Middle Assignment_Updated.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="242">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -986,11 +986,6 @@
 3. Click on Save button</t>
   </si>
   <si>
-    <t>1. Enter "Hồ Chí Minh" on Province field
-2. Enter/select valid data into other fields
-3. Click on Save button</t>
-  </si>
-  <si>
     <t>1. Copy some letters/text from other place (web, .docx, txt... file)
 2. Click on Province field and Ctrl+V (or right click &gt; Paste) OR copy text from Full Name to other places
 3. Enter/select valid data into other fields
@@ -1021,11 +1016,6 @@
 3. Click on Save button</t>
   </si>
   <si>
-    <t>1. Enter "Quận Long Biên" on Province field
-2. Enter/select valid data into other fields
-3. Click on Save button</t>
-  </si>
-  <si>
     <t>1. Select 'Hà Nội" on Province field
 2. Select "Quận Thanh Xuân" on District field
 3. Enter/Select valid data into other fields
@@ -1050,11 +1040,6 @@
 3. Click on Save button</t>
   </si>
   <si>
-    <t>1. Enter "Phường Khương Đình" on Ward field
-2. Enter/select valid data into other fields
-3. Click on Save button</t>
-  </si>
-  <si>
     <t>1. Copy some letters/text from other place (web, .docx, txt... file)
 2. Click on District field and Ctrl+V (or right click &gt; Paste) OR copy text from Full Name to other places
 3. Enter/select valid data into other fields
@@ -1071,6 +1056,24 @@
 2. Select "Quận Thanh Xuân" on District field
 3. Enter/Select valid data into other fields
 4. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Click on Province field and input something</t>
+  </si>
+  <si>
+    <t>1. Text box is locked and Province field just displays dropdown list</t>
+  </si>
+  <si>
+    <t>1. Click on District field and input something</t>
+  </si>
+  <si>
+    <t>1. Text box is locked and District field just displays dropdown list</t>
+  </si>
+  <si>
+    <t>1. Click on Ward field and input something</t>
+  </si>
+  <si>
+    <t>1. Text box is locked and Ward field just displays dropdown list</t>
   </si>
 </sst>
 </file>
@@ -1776,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
@@ -3178,7 +3181,7 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" ht="38.25">
+    <row r="22" spans="1:1024" ht="51">
       <c r="A22" s="46">
         <f t="shared" ref="A22:A23" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>2</v>
@@ -11065,7 +11068,7 @@
         <v>190</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E60" s="48"/>
       <c r="F60" s="46"/>
@@ -12151,7 +12154,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="41"/>
     </row>
-    <row r="64" spans="1:1024" s="37" customFormat="1" ht="63.75">
+    <row r="64" spans="1:1024" s="37" customFormat="1" ht="38.25">
       <c r="A64" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>41</v>
@@ -12172,7 +12175,7 @@
       <c r="I64" s="35"/>
       <c r="J64" s="41"/>
     </row>
-    <row r="65" spans="1:1024" s="37" customFormat="1" ht="51">
+    <row r="65" spans="1:1024" s="37" customFormat="1" ht="25.5">
       <c r="A65" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>42</v>
@@ -12181,10 +12184,10 @@
         <v>47</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -12202,7 +12205,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" s="51" t="s">
         <v>148</v>
@@ -12226,7 +12229,7 @@
         <v>109</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -13293,10 +13296,10 @@
         <v>83</v>
       </c>
       <c r="C70" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="47" t="s">
         <v>224</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>225</v>
       </c>
       <c r="E70" s="48"/>
       <c r="F70" s="46"/>
@@ -14349,7 +14352,7 @@
         <v>49</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72" s="35" t="s">
         <v>145</v>
@@ -14370,7 +14373,7 @@
         <v>93</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D73" s="35" t="s">
         <v>145</v>
@@ -14382,7 +14385,7 @@
       <c r="I73" s="35"/>
       <c r="J73" s="41"/>
     </row>
-    <row r="74" spans="1:1024" s="37" customFormat="1" ht="63.75">
+    <row r="74" spans="1:1024" s="37" customFormat="1" ht="25.5">
       <c r="A74" s="41">
         <f t="shared" ref="A74:A76" ca="1" si="7">IF(OFFSET(A74,-1,0) ="",OFFSET(A74,-2,0)+1,OFFSET(A74,-1,0)+1 )</f>
         <v>50</v>
@@ -14391,10 +14394,10 @@
         <v>50</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
@@ -14412,7 +14415,7 @@
         <v>94</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D75" s="51" t="s">
         <v>148</v>
@@ -14454,7 +14457,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="51" t="s">
         <v>148</v>
@@ -15524,10 +15527,10 @@
         <v>87</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E80" s="48"/>
       <c r="F80" s="46"/>
@@ -16580,7 +16583,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="35" t="s">
         <v>145</v>
@@ -16601,7 +16604,7 @@
         <v>88</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="35" t="s">
         <v>145</v>
@@ -16613,7 +16616,7 @@
       <c r="I83" s="35"/>
       <c r="J83" s="41"/>
     </row>
-    <row r="84" spans="1:10" s="37" customFormat="1" ht="63.75">
+    <row r="84" spans="1:10" s="37" customFormat="1" ht="25.5">
       <c r="A84" s="41">
         <f t="shared" ca="1" si="9"/>
         <v>59</v>
@@ -16622,10 +16625,10 @@
         <v>55</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
@@ -16643,7 +16646,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D85" s="51" t="s">
         <v>148</v>
@@ -16685,7 +16688,7 @@
         <v>57</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D87" s="51" t="s">
         <v>148</v>
@@ -16706,7 +16709,7 @@
         <v>90</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D88" s="51" t="s">
         <v>148</v>
